--- a/GA-Biased-V2.xlsx
+++ b/GA-Biased-V2.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27618"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncd2763\Documents\Data\GA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://whitecliffecollege-my.sharepoint.com/personal/sanaa_whitecliffe_ac_nz/Documents/Documents/Research/Data-NoV2023/GA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA473A0-EB63-4DA7-85DD-52782F8E429F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{22329106-504D-4C08-B31C-B9D6C82F4F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2FA21E7-345D-4C97-BE29-E075CA1C1777}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,34 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t xml:space="preserve">Average </t>
-  </si>
-  <si>
-    <t>Mini Fitness</t>
-  </si>
-  <si>
-    <t>Negative Range</t>
-  </si>
-  <si>
-    <t>Maximum Fitness</t>
-  </si>
-  <si>
-    <t>Positive Range</t>
-  </si>
-  <si>
-    <t>Stanard Dviation</t>
-  </si>
-  <si>
-    <t>Best Track Fitness</t>
-  </si>
-  <si>
-    <t>Worst Track Ftiness</t>
-  </si>
-  <si>
-    <t>Standard Deviation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>R1</t>
   </si>
@@ -96,6 +69,36 @@
     <t>R10</t>
   </si>
   <si>
+    <t xml:space="preserve">Average </t>
+  </si>
+  <si>
+    <t>Mini Fitness</t>
+  </si>
+  <si>
+    <t>Negative Range</t>
+  </si>
+  <si>
+    <t>Maximum Fitness</t>
+  </si>
+  <si>
+    <t>Positive Range</t>
+  </si>
+  <si>
+    <t>Stanard Dviation</t>
+  </si>
+  <si>
+    <t>avarage</t>
+  </si>
+  <si>
+    <t>Best Track Fitness</t>
+  </si>
+  <si>
+    <t>Worst Track Ftiness</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
     <t>Min SD</t>
   </si>
 </sst>
@@ -103,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,11 +156,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2684,41 +2686,41 @@
       <selection activeCell="K201" sqref="K201:K202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2753,7 +2755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2788,7 +2790,7 @@
         <v>16.149999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2823,7 +2825,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2858,7 +2860,7 @@
         <v>1359.75</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2893,7 +2895,7 @@
         <v>1881.6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2928,7 +2930,7 @@
         <v>2775.5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2963,7 +2965,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2998,7 +3000,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3033,7 +3035,7 @@
         <v>3721</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3068,7 +3070,7 @@
         <v>3906</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3103,7 +3105,7 @@
         <v>5355</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3138,7 +3140,7 @@
         <v>4288</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3173,7 +3175,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3208,7 +3210,7 @@
         <v>4216</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3243,7 +3245,7 @@
         <v>4087</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3278,7 +3280,7 @@
         <v>4536</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3313,7 +3315,7 @@
         <v>4288</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3348,7 +3350,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3383,7 +3385,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3418,7 +3420,7 @@
         <v>4928</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3453,7 +3455,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3488,7 +3490,7 @@
         <v>4544</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3523,7 +3525,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3558,7 +3560,7 @@
         <v>4698</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3593,7 +3595,7 @@
         <v>4745</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3628,7 +3630,7 @@
         <v>4543</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3663,7 +3665,7 @@
         <v>5166</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3698,7 +3700,7 @@
         <v>4712</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3733,7 +3735,7 @@
         <v>5056</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3768,7 +3770,7 @@
         <v>4599</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3803,7 +3805,7 @@
         <v>4760</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3838,7 +3840,7 @@
         <v>4620</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3873,7 +3875,7 @@
         <v>4836</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3908,7 +3910,7 @@
         <v>4864</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3943,7 +3945,7 @@
         <v>4914</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3978,7 +3980,7 @@
         <v>5135</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4013,7 +4015,7 @@
         <v>5135</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4048,7 +4050,7 @@
         <v>5120</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4083,7 +4085,7 @@
         <v>5135</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4118,7 +4120,7 @@
         <v>4896</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4153,7 +4155,7 @@
         <v>5025</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4188,7 +4190,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4223,7 +4225,7 @@
         <v>4774</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4258,7 +4260,7 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4293,7 +4295,7 @@
         <v>5994</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4328,7 +4330,7 @@
         <v>5880</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4363,7 +4365,7 @@
         <v>5538</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4398,7 +4400,7 @@
         <v>5760</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4433,7 +4435,7 @@
         <v>5402</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4468,7 +4470,7 @@
         <v>6237</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4503,7 +4505,7 @@
         <v>6624</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4538,7 +4540,7 @@
         <v>5460</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4573,7 +4575,7 @@
         <v>5670</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4608,7 +4610,7 @@
         <v>5304</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4643,7 +4645,7 @@
         <v>5382</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4678,7 +4680,7 @@
         <v>5767</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4713,7 +4715,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4748,7 +4750,7 @@
         <v>4758</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4783,7 +4785,7 @@
         <v>5494</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4818,7 +4820,7 @@
         <v>4928</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4853,7 +4855,7 @@
         <v>5530</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4888,7 +4890,7 @@
         <v>5320</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4923,7 +4925,7 @@
         <v>5460</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4958,7 +4960,7 @@
         <v>5775</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4993,7 +4995,7 @@
         <v>5467</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5028,7 +5030,7 @@
         <v>5304</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5063,7 +5065,7 @@
         <v>5846</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5098,7 +5100,7 @@
         <v>5244</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5133,7 +5135,7 @@
         <v>5576</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5168,7 +5170,7 @@
         <v>5760</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5203,7 +5205,7 @@
         <v>5396</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5238,7 +5240,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5273,7 +5275,7 @@
         <v>5304</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5308,7 +5310,7 @@
         <v>6216</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5343,7 +5345,7 @@
         <v>5104</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5378,7 +5380,7 @@
         <v>5254</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5413,7 +5415,7 @@
         <v>5168</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5448,7 +5450,7 @@
         <v>6396</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5483,7 +5485,7 @@
         <v>5832</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5518,7 +5520,7 @@
         <v>5544</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5553,7 +5555,7 @@
         <v>5214</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5588,7 +5590,7 @@
         <v>5330</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5623,7 +5625,7 @@
         <v>6006</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5658,7 +5660,7 @@
         <v>5694</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5693,7 +5695,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5728,7 +5730,7 @@
         <v>6162</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5763,7 +5765,7 @@
         <v>5025</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5798,7 +5800,7 @@
         <v>5504</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5833,7 +5835,7 @@
         <v>5016</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5868,7 +5870,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5903,7 +5905,7 @@
         <v>6020</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5938,7 +5940,7 @@
         <v>5684</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5973,7 +5975,7 @@
         <v>5589</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6008,7 +6010,7 @@
         <v>6132</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6043,7 +6045,7 @@
         <v>5832</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6078,7 +6080,7 @@
         <v>5041</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6113,7 +6115,7 @@
         <v>6106</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6148,7 +6150,7 @@
         <v>5767</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6183,7 +6185,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6218,7 +6220,7 @@
         <v>5658</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6253,7 +6255,7 @@
         <v>5695</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6288,7 +6290,7 @@
         <v>5472</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6323,7 +6325,7 @@
         <v>6150</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6358,7 +6360,7 @@
         <v>6162</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6393,7 +6395,7 @@
         <v>5893</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6428,7 +6430,7 @@
         <v>6162</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6463,7 +6465,7 @@
         <v>6059</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6498,7 +6500,7 @@
         <v>7568</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6533,7 +6535,7 @@
         <v>6150</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6568,7 +6570,7 @@
         <v>6622</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6603,7 +6605,7 @@
         <v>6561</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6638,7 +6640,7 @@
         <v>5313</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6673,7 +6675,7 @@
         <v>5670</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6708,7 +6710,7 @@
         <v>5040</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6743,7 +6745,7 @@
         <v>5056</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6778,7 +6780,7 @@
         <v>5688</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6813,7 +6815,7 @@
         <v>6319</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6848,7 +6850,7 @@
         <v>5829</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6883,7 +6885,7 @@
         <v>5427</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6918,7 +6920,7 @@
         <v>5175</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6953,7 +6955,7 @@
         <v>6396</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6988,7 +6990,7 @@
         <v>6308</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7023,7 +7025,7 @@
         <v>5451</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7058,7 +7060,7 @@
         <v>6396</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7093,7 +7095,7 @@
         <v>6808</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7128,7 +7130,7 @@
         <v>5624</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7163,7 +7165,7 @@
         <v>5828</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7198,7 +7200,7 @@
         <v>5576</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7233,7 +7235,7 @@
         <v>5530</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7268,7 +7270,7 @@
         <v>6750</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7303,7 +7305,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7338,7 +7340,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7373,7 +7375,7 @@
         <v>5451</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7408,7 +7410,7 @@
         <v>5037</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7443,7 +7445,7 @@
         <v>6975</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7478,7 +7480,7 @@
         <v>5412</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7513,7 +7515,7 @@
         <v>5360</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7548,7 +7550,7 @@
         <v>5330</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7583,7 +7585,7 @@
         <v>5544</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7618,7 +7620,7 @@
         <v>5325</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7653,7 +7655,7 @@
         <v>5112</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7688,7 +7690,7 @@
         <v>7830</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7723,7 +7725,7 @@
         <v>6248</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7758,7 +7760,7 @@
         <v>5427</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7793,7 +7795,7 @@
         <v>5460</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7828,7 +7830,7 @@
         <v>5293</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7863,7 +7865,7 @@
         <v>7254</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7898,7 +7900,7 @@
         <v>5106</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7933,7 +7935,7 @@
         <v>5025</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7968,7 +7970,7 @@
         <v>5175</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11">
       <c r="A152">
         <v>151</v>
       </c>
@@ -8003,7 +8005,7 @@
         <v>5092</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11">
       <c r="A153">
         <v>152</v>
       </c>
@@ -8038,7 +8040,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11">
       <c r="A154">
         <v>153</v>
       </c>
@@ -8073,7 +8075,7 @@
         <v>5304</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11">
       <c r="A155">
         <v>154</v>
       </c>
@@ -8108,7 +8110,7 @@
         <v>5832</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11">
       <c r="A156">
         <v>155</v>
       </c>
@@ -8143,7 +8145,7 @@
         <v>5658</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11">
       <c r="A157">
         <v>156</v>
       </c>
@@ -8178,7 +8180,7 @@
         <v>5390</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11">
       <c r="A158">
         <v>157</v>
       </c>
@@ -8213,7 +8215,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11">
       <c r="A159">
         <v>158</v>
       </c>
@@ -8248,7 +8250,7 @@
         <v>6930</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11">
       <c r="A160">
         <v>159</v>
       </c>
@@ -8283,7 +8285,7 @@
         <v>6192</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11">
       <c r="A161">
         <v>160</v>
       </c>
@@ -8318,7 +8320,7 @@
         <v>5372</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11">
       <c r="A162">
         <v>161</v>
       </c>
@@ -8353,7 +8355,7 @@
         <v>5402</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11">
       <c r="A163">
         <v>162</v>
       </c>
@@ -8388,7 +8390,7 @@
         <v>5544</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11">
       <c r="A164">
         <v>163</v>
       </c>
@@ -8423,7 +8425,7 @@
         <v>5658</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8458,7 +8460,7 @@
         <v>5244</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8493,7 +8495,7 @@
         <v>5964</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8528,7 +8530,7 @@
         <v>5904</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11">
       <c r="A168">
         <v>167</v>
       </c>
@@ -8563,7 +8565,7 @@
         <v>6059</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11">
       <c r="A169">
         <v>168</v>
       </c>
@@ -8598,7 +8600,7 @@
         <v>5346</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11">
       <c r="A170">
         <v>169</v>
       </c>
@@ -8633,7 +8635,7 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11">
       <c r="A171">
         <v>170</v>
       </c>
@@ -8668,7 +8670,7 @@
         <v>5016</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11">
       <c r="A172">
         <v>171</v>
       </c>
@@ -8703,7 +8705,7 @@
         <v>5148</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8738,7 +8740,7 @@
         <v>5040</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11">
       <c r="A174">
         <v>173</v>
       </c>
@@ -8773,7 +8775,7 @@
         <v>5304</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11">
       <c r="A175">
         <v>174</v>
       </c>
@@ -8808,7 +8810,7 @@
         <v>5376</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11">
       <c r="A176">
         <v>175</v>
       </c>
@@ -8843,7 +8845,7 @@
         <v>6840</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8878,7 +8880,7 @@
         <v>6930</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8913,7 +8915,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8948,7 +8950,7 @@
         <v>5427</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8983,7 +8985,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11">
       <c r="A181">
         <v>180</v>
       </c>
@@ -9018,7 +9020,7 @@
         <v>5148</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11">
       <c r="A182">
         <v>181</v>
       </c>
@@ -9053,7 +9055,7 @@
         <v>5390</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11">
       <c r="A183">
         <v>182</v>
       </c>
@@ -9088,7 +9090,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11">
       <c r="A184">
         <v>183</v>
       </c>
@@ -9123,7 +9125,7 @@
         <v>5328</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11">
       <c r="A185">
         <v>184</v>
       </c>
@@ -9158,7 +9160,7 @@
         <v>5624</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11">
       <c r="A186">
         <v>185</v>
       </c>
@@ -9193,7 +9195,7 @@
         <v>5561</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11">
       <c r="A187">
         <v>186</v>
       </c>
@@ -9228,7 +9230,7 @@
         <v>5544</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11">
       <c r="A188">
         <v>187</v>
       </c>
@@ -9263,7 +9265,7 @@
         <v>5304</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11">
       <c r="A189">
         <v>188</v>
       </c>
@@ -9298,7 +9300,7 @@
         <v>5360</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11">
       <c r="A190">
         <v>189</v>
       </c>
@@ -9333,7 +9335,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11">
       <c r="A191">
         <v>190</v>
       </c>
@@ -9368,7 +9370,7 @@
         <v>5168</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11">
       <c r="A192">
         <v>191</v>
       </c>
@@ -9403,7 +9405,7 @@
         <v>5372</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11">
       <c r="A193">
         <v>192</v>
       </c>
@@ -9438,7 +9440,7 @@
         <v>6560</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11">
       <c r="A194">
         <v>193</v>
       </c>
@@ -9473,7 +9475,7 @@
         <v>6216</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11">
       <c r="A195">
         <v>194</v>
       </c>
@@ -9508,7 +9510,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11">
       <c r="A196">
         <v>195</v>
       </c>
@@ -9543,7 +9545,7 @@
         <v>5148</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11">
       <c r="A197">
         <v>196</v>
       </c>
@@ -9578,7 +9580,7 @@
         <v>6006</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11">
       <c r="A198">
         <v>197</v>
       </c>
@@ -9613,7 +9615,7 @@
         <v>5548</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11">
       <c r="A199">
         <v>198</v>
       </c>
@@ -9648,7 +9650,7 @@
         <v>5934</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11">
       <c r="A200">
         <v>199</v>
       </c>
@@ -9683,7 +9685,7 @@
         <v>6319</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11">
       <c r="A201">
         <v>200</v>
       </c>
@@ -9718,7 +9720,7 @@
         <v>5950</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11">
       <c r="A202">
         <v>201</v>
       </c>
@@ -9763,11 +9765,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAE82AB-666B-4326-95B4-B992206DF2F0}">
   <dimension ref="B1:K204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
@@ -9778,27 +9780,27 @@
     <col min="10" max="10" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8">
       <c r="C1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
       <c r="B2">
         <f>Data!A2</f>
         <v>1</v>
@@ -9828,7 +9830,7 @@
         <v>967.11610788208884</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8">
       <c r="B3">
         <f>Data!A3</f>
         <v>2</v>
@@ -9858,7 +9860,7 @@
         <v>1433.9425512345329</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8">
       <c r="B4">
         <f>Data!A4</f>
         <v>3</v>
@@ -9888,7 +9890,7 @@
         <v>1577.7588071692076</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8">
       <c r="B5">
         <f>Data!A5</f>
         <v>4</v>
@@ -9918,7 +9920,7 @@
         <v>1436.1175085016541</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8">
       <c r="B6">
         <f>Data!A6</f>
         <v>5</v>
@@ -9948,7 +9950,7 @@
         <v>989.75336932995606</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8">
       <c r="B7">
         <f>Data!A7</f>
         <v>6</v>
@@ -9978,7 +9980,7 @@
         <v>685.33782647684131</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8">
       <c r="B8">
         <f>Data!A8</f>
         <v>7</v>
@@ -10008,7 +10010,7 @@
         <v>636.79030300405805</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8">
       <c r="B9">
         <f>Data!A9</f>
         <v>8</v>
@@ -10038,7 +10040,7 @@
         <v>672.33087836273</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8">
       <c r="B10">
         <f>Data!A10</f>
         <v>9</v>
@@ -10068,7 +10070,7 @@
         <v>502.05800461699641</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8">
       <c r="B11">
         <f>Data!A11</f>
         <v>10</v>
@@ -10098,7 +10100,7 @@
         <v>661.47649996050495</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8">
       <c r="B12">
         <f>Data!A12</f>
         <v>11</v>
@@ -10128,7 +10130,7 @@
         <v>499.40529632754198</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8">
       <c r="B13">
         <f>Data!A13</f>
         <v>12</v>
@@ -10158,7 +10160,7 @@
         <v>568.09140989809021</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8">
       <c r="B14">
         <f>Data!A14</f>
         <v>13</v>
@@ -10188,7 +10190,7 @@
         <v>399.41067837502794</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8">
       <c r="B15">
         <f>Data!A15</f>
         <v>14</v>
@@ -10218,7 +10220,7 @@
         <v>426.56442655242597</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8">
       <c r="B16">
         <f>Data!A16</f>
         <v>15</v>
@@ -10248,7 +10250,7 @@
         <v>437.08209755147823</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17">
         <f>Data!A17</f>
         <v>16</v>
@@ -10278,7 +10280,7 @@
         <v>557.96524085286887</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18">
         <f>Data!A18</f>
         <v>17</v>
@@ -10308,7 +10310,7 @@
         <v>378.03063367933555</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19">
         <f>Data!A19</f>
         <v>18</v>
@@ -10338,7 +10340,7 @@
         <v>503.84847920778725</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20">
         <f>Data!A20</f>
         <v>19</v>
@@ -10368,7 +10370,7 @@
         <v>382.85596508347629</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21">
         <f>Data!A21</f>
         <v>20</v>
@@ -10398,7 +10400,7 @@
         <v>406.47022031140239</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11">
       <c r="B22">
         <f>Data!A22</f>
         <v>21</v>
@@ -10428,7 +10430,7 @@
         <v>535.53122224572496</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23">
         <f>Data!A23</f>
         <v>22</v>
@@ -10458,7 +10460,7 @@
         <v>385.97420898293188</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24">
         <f>Data!A24</f>
         <v>23</v>
@@ -10488,7 +10490,7 @@
         <v>449.64729511028975</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25">
         <f>Data!A25</f>
         <v>24</v>
@@ -10518,7 +10520,7 @@
         <v>528.2352600877756</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26">
         <f>Data!A26</f>
         <v>25</v>
@@ -10548,7 +10550,7 @@
         <v>503.73505933178802</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27">
         <f>Data!A27</f>
         <v>26</v>
@@ -10578,7 +10580,7 @@
         <v>412.7178333922584</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28">
         <f>Data!A28</f>
         <v>27</v>
@@ -10608,7 +10610,7 @@
         <v>635.38652802841204</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29">
         <f>Data!A29</f>
         <v>28</v>
@@ -10637,8 +10639,15 @@
         <f>_xlfn.STDEV.P(Data!B29:K29)</f>
         <v>690.92611037650045</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29">
+        <f>C201</f>
+        <v>5780.3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
       <c r="B30">
         <f>Data!A30</f>
         <v>29</v>
@@ -10668,14 +10677,14 @@
         <v>365.38576874311894</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="K30" s="1">
         <f>F201</f>
         <v>7110</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31">
         <f>Data!A31</f>
         <v>30</v>
@@ -10705,14 +10714,14 @@
         <v>423.26062892737849</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="K31" s="1">
         <f>D201</f>
         <v>5040</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11">
       <c r="B32">
         <f>Data!A32</f>
         <v>31</v>
@@ -10742,14 +10751,14 @@
         <v>387.93989225136414</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="K32" s="2">
         <f>H201</f>
         <v>631.16908194239045</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11">
       <c r="B33">
         <f>Data!A33</f>
         <v>32</v>
@@ -10778,15 +10787,15 @@
         <f>_xlfn.STDEV.P(Data!B33:K33)</f>
         <v>720.1485680052416</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>19</v>
+      <c r="J33" t="s">
+        <v>20</v>
       </c>
       <c r="K33">
         <f>MIN(H2:H202)</f>
         <v>230.8635094595939</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11">
       <c r="B34">
         <f>Data!A34</f>
         <v>33</v>
@@ -10816,7 +10825,7 @@
         <v>610.97566858263474</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11">
       <c r="B35">
         <f>Data!A35</f>
         <v>34</v>
@@ -10846,7 +10855,7 @@
         <v>389.82744900789118</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11">
       <c r="B36">
         <f>Data!A36</f>
         <v>35</v>
@@ -10876,7 +10885,7 @@
         <v>381.51702452184225</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11">
       <c r="B37">
         <f>Data!A37</f>
         <v>36</v>
@@ -10906,7 +10915,7 @@
         <v>372.13633254494249</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11">
       <c r="B38">
         <f>Data!A38</f>
         <v>37</v>
@@ -10936,7 +10945,7 @@
         <v>428.0264010548882</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11">
       <c r="B39">
         <f>Data!A39</f>
         <v>38</v>
@@ -10966,7 +10975,7 @@
         <v>369.02478236562916</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11">
       <c r="B40">
         <f>Data!A40</f>
         <v>39</v>
@@ -10996,7 +11005,7 @@
         <v>722.07340347086597</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11">
       <c r="B41">
         <f>Data!A41</f>
         <v>40</v>
@@ -11026,7 +11035,7 @@
         <v>490.97825817443282</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11">
       <c r="B42">
         <f>Data!A42</f>
         <v>41</v>
@@ -11056,7 +11065,7 @@
         <v>631.04548964397168</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11">
       <c r="B43">
         <f>Data!A43</f>
         <v>42</v>
@@ -11086,7 +11095,7 @@
         <v>433.62644061449947</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11">
       <c r="B44">
         <f>Data!A44</f>
         <v>43</v>
@@ -11116,7 +11125,7 @@
         <v>630.63705092549071</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11">
       <c r="B45">
         <f>Data!A45</f>
         <v>44</v>
@@ -11146,7 +11155,7 @@
         <v>983.18721004699808</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11">
       <c r="B46">
         <f>Data!A46</f>
         <v>45</v>
@@ -11176,7 +11185,7 @@
         <v>514.54785627772264</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11">
       <c r="B47">
         <f>Data!A47</f>
         <v>46</v>
@@ -11206,7 +11215,7 @@
         <v>457.13968324791057</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11">
       <c r="B48">
         <f>Data!A48</f>
         <v>47</v>
@@ -11236,7 +11245,7 @@
         <v>593.61266832843114</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8">
       <c r="B49">
         <f>Data!A49</f>
         <v>48</v>
@@ -11266,7 +11275,7 @@
         <v>425.61251156421611</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8">
       <c r="B50">
         <f>Data!A50</f>
         <v>49</v>
@@ -11296,7 +11305,7 @@
         <v>482.57024359154178</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8">
       <c r="B51">
         <f>Data!A51</f>
         <v>50</v>
@@ -11326,7 +11335,7 @@
         <v>479.69395451683562</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8">
       <c r="B52">
         <f>Data!A52</f>
         <v>51</v>
@@ -11356,7 +11365,7 @@
         <v>494.36513833400511</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8">
       <c r="B53">
         <f>Data!A53</f>
         <v>52</v>
@@ -11386,7 +11395,7 @@
         <v>674.08976405223655</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8">
       <c r="B54">
         <f>Data!A54</f>
         <v>53</v>
@@ -11416,7 +11425,7 @@
         <v>240.09323189128008</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8">
       <c r="B55">
         <f>Data!A55</f>
         <v>54</v>
@@ -11446,7 +11455,7 @@
         <v>559.2461443765169</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8">
       <c r="B56">
         <f>Data!A56</f>
         <v>55</v>
@@ -11476,7 +11485,7 @@
         <v>782.35659388797887</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8">
       <c r="B57">
         <f>Data!A57</f>
         <v>56</v>
@@ -11506,7 +11515,7 @@
         <v>879.2595976160851</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8">
       <c r="B58">
         <f>Data!A58</f>
         <v>57</v>
@@ -11536,7 +11545,7 @@
         <v>811.25791213398963</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8">
       <c r="B59">
         <f>Data!A59</f>
         <v>58</v>
@@ -11566,7 +11575,7 @@
         <v>551.35777857939036</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8">
       <c r="B60">
         <f>Data!A60</f>
         <v>59</v>
@@ -11596,7 +11605,7 @@
         <v>484.53925537566096</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8">
       <c r="B61">
         <f>Data!A61</f>
         <v>60</v>
@@ -11626,7 +11635,7 @@
         <v>493.33863623276051</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8">
       <c r="B62">
         <f>Data!A62</f>
         <v>61</v>
@@ -11656,7 +11665,7 @@
         <v>468.68733458458212</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8">
       <c r="B63">
         <f>Data!A63</f>
         <v>62</v>
@@ -11686,7 +11695,7 @@
         <v>425.4169836760164</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8">
       <c r="B64">
         <f>Data!A64</f>
         <v>63</v>
@@ -11716,7 +11725,7 @@
         <v>593.29571884516406</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8">
       <c r="B65">
         <f>Data!A65</f>
         <v>64</v>
@@ -11746,7 +11755,7 @@
         <v>416.34169860824653</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8">
       <c r="B66">
         <f>Data!A66</f>
         <v>65</v>
@@ -11776,7 +11785,7 @@
         <v>448.32845102669984</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8">
       <c r="B67">
         <f>Data!A67</f>
         <v>66</v>
@@ -11806,7 +11815,7 @@
         <v>230.8635094595939</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8">
       <c r="B68">
         <f>Data!A68</f>
         <v>67</v>
@@ -11836,7 +11845,7 @@
         <v>631.57077196463104</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8">
       <c r="B69">
         <f>Data!A69</f>
         <v>68</v>
@@ -11866,7 +11875,7 @@
         <v>419.96785591280673</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8">
       <c r="B70">
         <f>Data!A70</f>
         <v>69</v>
@@ -11896,7 +11905,7 @@
         <v>459.87372179762571</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8">
       <c r="B71">
         <f>Data!A71</f>
         <v>70</v>
@@ -11926,7 +11935,7 @@
         <v>436.17117052826859</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8">
       <c r="B72">
         <f>Data!A72</f>
         <v>71</v>
@@ -11956,7 +11965,7 @@
         <v>560.30331964035338</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8">
       <c r="B73">
         <f>Data!A73</f>
         <v>72</v>
@@ -11986,7 +11995,7 @@
         <v>654.42402156400101</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8">
       <c r="B74">
         <f>Data!A74</f>
         <v>73</v>
@@ -12016,7 +12025,7 @@
         <v>307.86368736828967</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8">
       <c r="B75">
         <f>Data!A75</f>
         <v>74</v>
@@ -12046,7 +12055,7 @@
         <v>760.41964730009443</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8">
       <c r="B76">
         <f>Data!A76</f>
         <v>75</v>
@@ -12076,7 +12085,7 @@
         <v>536.41294727103673</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8">
       <c r="B77">
         <f>Data!A77</f>
         <v>76</v>
@@ -12106,7 +12115,7 @@
         <v>437.70081105705071</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8">
       <c r="B78">
         <f>Data!A78</f>
         <v>77</v>
@@ -12136,7 +12145,7 @@
         <v>420.92328279628344</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8">
       <c r="B79">
         <f>Data!A79</f>
         <v>78</v>
@@ -12166,7 +12175,7 @@
         <v>562.23437283752048</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8">
       <c r="B80">
         <f>Data!A80</f>
         <v>79</v>
@@ -12196,7 +12205,7 @@
         <v>952.0107194774647</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8">
       <c r="B81">
         <f>Data!A81</f>
         <v>80</v>
@@ -12226,7 +12235,7 @@
         <v>325.03698251122131</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8">
       <c r="B82">
         <f>Data!A82</f>
         <v>81</v>
@@ -12256,7 +12265,7 @@
         <v>598.17630344238819</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8">
       <c r="B83">
         <f>Data!A83</f>
         <v>82</v>
@@ -12286,7 +12295,7 @@
         <v>594.72770239833289</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8">
       <c r="B84">
         <f>Data!A84</f>
         <v>83</v>
@@ -12316,7 +12325,7 @@
         <v>329.00001519756802</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8">
       <c r="B85">
         <f>Data!A85</f>
         <v>84</v>
@@ -12346,7 +12355,7 @@
         <v>361.60121681211194</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8">
       <c r="B86">
         <f>Data!A86</f>
         <v>85</v>
@@ -12376,7 +12385,7 @@
         <v>439.99459087584245</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8">
       <c r="B87">
         <f>Data!A87</f>
         <v>86</v>
@@ -12406,7 +12415,7 @@
         <v>702.95451488698757</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8">
       <c r="B88">
         <f>Data!A88</f>
         <v>87</v>
@@ -12436,7 +12445,7 @@
         <v>455.79303417230943</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8">
       <c r="B89">
         <f>Data!A89</f>
         <v>88</v>
@@ -12466,7 +12475,7 @@
         <v>594.04329808524903</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8">
       <c r="B90">
         <f>Data!A90</f>
         <v>89</v>
@@ -12496,7 +12505,7 @@
         <v>531.53573727455057</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8">
       <c r="B91">
         <f>Data!A91</f>
         <v>90</v>
@@ -12526,7 +12535,7 @@
         <v>271.33634109717042</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8">
       <c r="B92">
         <f>Data!A92</f>
         <v>91</v>
@@ -12556,7 +12565,7 @@
         <v>384.43237376683044</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8">
       <c r="B93">
         <f>Data!A93</f>
         <v>92</v>
@@ -12586,7 +12595,7 @@
         <v>640.71456983589815</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8">
       <c r="B94">
         <f>Data!A94</f>
         <v>93</v>
@@ -12616,7 +12625,7 @@
         <v>827.40703405276895</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8">
       <c r="B95">
         <f>Data!A95</f>
         <v>94</v>
@@ -12646,7 +12655,7 @@
         <v>590.28328792199432</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8">
       <c r="B96">
         <f>Data!A96</f>
         <v>95</v>
@@ -12676,7 +12685,7 @@
         <v>527.73209112200107</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8">
       <c r="B97">
         <f>Data!A97</f>
         <v>96</v>
@@ -12706,7 +12715,7 @@
         <v>515.25989558668346</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8">
       <c r="B98">
         <f>Data!A98</f>
         <v>97</v>
@@ -12736,7 +12745,7 @@
         <v>484.72475694975594</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8">
       <c r="B99">
         <f>Data!A99</f>
         <v>98</v>
@@ -12766,7 +12775,7 @@
         <v>730.30388195599778</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8">
       <c r="B100">
         <f>Data!A100</f>
         <v>99</v>
@@ -12796,7 +12805,7 @@
         <v>574.2047457135825</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8">
       <c r="B101">
         <f>Data!A101</f>
         <v>100</v>
@@ -12826,7 +12835,7 @@
         <v>467.61463835085402</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8">
       <c r="B102">
         <f>Data!A102</f>
         <v>101</v>
@@ -12856,7 +12865,7 @@
         <v>334.23189554559269</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8">
       <c r="B103">
         <f>Data!A103</f>
         <v>102</v>
@@ -12886,7 +12895,7 @@
         <v>884.93302006423062</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8">
       <c r="B104">
         <f>Data!A104</f>
         <v>103</v>
@@ -12916,7 +12925,7 @@
         <v>476.33149171559086</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8">
       <c r="B105">
         <f>Data!A105</f>
         <v>104</v>
@@ -12946,7 +12955,7 @@
         <v>431.29869000496626</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8">
       <c r="B106">
         <f>Data!A106</f>
         <v>105</v>
@@ -12976,7 +12985,7 @@
         <v>384.60760522901779</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8">
       <c r="B107">
         <f>Data!A107</f>
         <v>106</v>
@@ -13006,7 +13015,7 @@
         <v>561.76849324254567</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8">
       <c r="B108">
         <f>Data!A108</f>
         <v>107</v>
@@ -13036,7 +13045,7 @@
         <v>676.79915041317838</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8">
       <c r="B109">
         <f>Data!A109</f>
         <v>108</v>
@@ -13066,7 +13075,7 @@
         <v>692.24565004050407</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8">
       <c r="B110">
         <f>Data!A110</f>
         <v>109</v>
@@ -13096,7 +13105,7 @@
         <v>931.09553215553558</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8">
       <c r="B111">
         <f>Data!A111</f>
         <v>110</v>
@@ -13126,7 +13135,7 @@
         <v>791.2504281199474</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8">
       <c r="B112">
         <f>Data!A112</f>
         <v>111</v>
@@ -13156,7 +13165,7 @@
         <v>521.4856086221364</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8">
       <c r="B113">
         <f>Data!A113</f>
         <v>112</v>
@@ -13186,7 +13195,7 @@
         <v>688.99358487579548</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8">
       <c r="B114">
         <f>Data!A114</f>
         <v>113</v>
@@ -13216,7 +13225,7 @@
         <v>503.3295640035463</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8">
       <c r="B115">
         <f>Data!A115</f>
         <v>114</v>
@@ -13246,7 +13255,7 @@
         <v>393.53735527901284</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8">
       <c r="B116">
         <f>Data!A116</f>
         <v>115</v>
@@ -13276,7 +13285,7 @@
         <v>316.71597686255109</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8">
       <c r="B117">
         <f>Data!A117</f>
         <v>116</v>
@@ -13306,7 +13315,7 @@
         <v>647.13538768946955</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:8">
       <c r="B118">
         <f>Data!A118</f>
         <v>117</v>
@@ -13336,7 +13345,7 @@
         <v>514.73896297055273</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8">
       <c r="B119">
         <f>Data!A119</f>
         <v>118</v>
@@ -13366,7 +13375,7 @@
         <v>495.31917992341062</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8">
       <c r="B120">
         <f>Data!A120</f>
         <v>119</v>
@@ -13396,7 +13405,7 @@
         <v>597.32119500315741</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:8">
       <c r="B121">
         <f>Data!A121</f>
         <v>120</v>
@@ -13426,7 +13435,7 @@
         <v>457.73140595768604</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:8">
       <c r="B122">
         <f>Data!A122</f>
         <v>121</v>
@@ -13456,7 +13465,7 @@
         <v>721.47273552088905</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:8">
       <c r="B123">
         <f>Data!A123</f>
         <v>122</v>
@@ -13486,7 +13495,7 @@
         <v>446.23940883790175</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:8">
       <c r="B124">
         <f>Data!A124</f>
         <v>123</v>
@@ -13516,7 +13525,7 @@
         <v>626.11597168575724</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:8">
       <c r="B125">
         <f>Data!A125</f>
         <v>124</v>
@@ -13546,7 +13555,7 @@
         <v>483.68387403344343</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:8">
       <c r="B126">
         <f>Data!A126</f>
         <v>125</v>
@@ -13576,7 +13585,7 @@
         <v>734.41884507411714</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:8">
       <c r="B127">
         <f>Data!A127</f>
         <v>126</v>
@@ -13606,7 +13615,7 @@
         <v>435.18236407281029</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:8">
       <c r="B128">
         <f>Data!A128</f>
         <v>127</v>
@@ -13636,7 +13645,7 @@
         <v>546.9951096673534</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8">
       <c r="B129">
         <f>Data!A129</f>
         <v>128</v>
@@ -13666,7 +13675,7 @@
         <v>704.46876438916718</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8">
       <c r="B130">
         <f>Data!A130</f>
         <v>129</v>
@@ -13696,7 +13705,7 @@
         <v>350.10976850125161</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8">
       <c r="B131">
         <f>Data!A131</f>
         <v>130</v>
@@ -13726,7 +13735,7 @@
         <v>816.28659795441945</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:8">
       <c r="B132">
         <f>Data!A132</f>
         <v>131</v>
@@ -13756,7 +13765,7 @@
         <v>763.28503195071244</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:8">
       <c r="B133">
         <f>Data!A133</f>
         <v>132</v>
@@ -13786,7 +13795,7 @@
         <v>419.09880696561282</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:8">
       <c r="B134">
         <f>Data!A134</f>
         <v>133</v>
@@ -13816,7 +13825,7 @@
         <v>692.55975193480594</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8">
       <c r="B135">
         <f>Data!A135</f>
         <v>134</v>
@@ -13846,7 +13855,7 @@
         <v>290.85948497513363</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:8">
       <c r="B136">
         <f>Data!A136</f>
         <v>135</v>
@@ -13876,7 +13885,7 @@
         <v>679.62711099543401</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8">
       <c r="B137">
         <f>Data!A137</f>
         <v>136</v>
@@ -13906,7 +13915,7 @@
         <v>668.96428155769274</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8">
       <c r="B138">
         <f>Data!A138</f>
         <v>137</v>
@@ -13936,7 +13945,7 @@
         <v>676.18905640360674</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8">
       <c r="B139">
         <f>Data!A139</f>
         <v>138</v>
@@ -13966,7 +13975,7 @@
         <v>285.4894218705835</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8">
       <c r="B140">
         <f>Data!A140</f>
         <v>139</v>
@@ -13996,7 +14005,7 @@
         <v>596.61630048130598</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8">
       <c r="B141">
         <f>Data!A141</f>
         <v>140</v>
@@ -14026,7 +14035,7 @@
         <v>583.90358793211749</v>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:8">
       <c r="B142">
         <f>Data!A142</f>
         <v>141</v>
@@ -14056,7 +14065,7 @@
         <v>382.6795526285668</v>
       </c>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:8">
       <c r="B143">
         <f>Data!A143</f>
         <v>142</v>
@@ -14086,7 +14095,7 @@
         <v>859.64272951034582</v>
       </c>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:8">
       <c r="B144">
         <f>Data!A144</f>
         <v>143</v>
@@ -14116,7 +14125,7 @@
         <v>708.22315692160191</v>
       </c>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:8">
       <c r="B145">
         <f>Data!A145</f>
         <v>144</v>
@@ -14146,7 +14155,7 @@
         <v>395.34799860376171</v>
       </c>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:8">
       <c r="B146">
         <f>Data!A146</f>
         <v>145</v>
@@ -14176,7 +14185,7 @@
         <v>639.79012965190384</v>
       </c>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:8">
       <c r="B147">
         <f>Data!A147</f>
         <v>146</v>
@@ -14206,7 +14215,7 @@
         <v>650.37158609521066</v>
       </c>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:8">
       <c r="B148">
         <f>Data!A148</f>
         <v>147</v>
@@ -14236,7 +14245,7 @@
         <v>737.6</v>
       </c>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:8">
       <c r="B149">
         <f>Data!A149</f>
         <v>148</v>
@@ -14266,7 +14275,7 @@
         <v>874.8357331522302</v>
       </c>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:8">
       <c r="B150">
         <f>Data!A150</f>
         <v>149</v>
@@ -14296,7 +14305,7 @@
         <v>890.57222615574528</v>
       </c>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:8">
       <c r="B151">
         <f>Data!A151</f>
         <v>150</v>
@@ -14326,7 +14335,7 @@
         <v>506.74960286121586</v>
       </c>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:8">
       <c r="B152">
         <f>Data!A152</f>
         <v>151</v>
@@ -14356,7 +14365,7 @@
         <v>386.00290154349875</v>
       </c>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:8">
       <c r="B153">
         <f>Data!A153</f>
         <v>152</v>
@@ -14386,7 +14395,7 @@
         <v>626.56010086822482</v>
       </c>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:8">
       <c r="B154">
         <f>Data!A154</f>
         <v>153</v>
@@ -14416,7 +14425,7 @@
         <v>522.86151130103281</v>
       </c>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:8">
       <c r="B155">
         <f>Data!A155</f>
         <v>154</v>
@@ -14446,7 +14455,7 @@
         <v>563.1356497328153</v>
       </c>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:8">
       <c r="B156">
         <f>Data!A156</f>
         <v>155</v>
@@ -14476,7 +14485,7 @@
         <v>374.38354664701819</v>
       </c>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8">
       <c r="B157">
         <f>Data!A157</f>
         <v>156</v>
@@ -14506,7 +14515,7 @@
         <v>619.9248422187967</v>
       </c>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:8">
       <c r="B158">
         <f>Data!A158</f>
         <v>157</v>
@@ -14536,7 +14545,7 @@
         <v>930.51091342337304</v>
       </c>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:8">
       <c r="B159">
         <f>Data!A159</f>
         <v>158</v>
@@ -14566,7 +14575,7 @@
         <v>656.17285070322748</v>
       </c>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:8">
       <c r="B160">
         <f>Data!A160</f>
         <v>159</v>
@@ -14596,7 +14605,7 @@
         <v>708.98398430430007</v>
       </c>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:8">
       <c r="B161">
         <f>Data!A161</f>
         <v>160</v>
@@ -14626,7 +14635,7 @@
         <v>730.64506430961399</v>
       </c>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:8">
       <c r="B162">
         <f>Data!A162</f>
         <v>161</v>
@@ -14656,7 +14665,7 @@
         <v>502.28267937487152</v>
       </c>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:8">
       <c r="B163">
         <f>Data!A163</f>
         <v>162</v>
@@ -14686,7 +14695,7 @@
         <v>619.80500159324299</v>
       </c>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:8">
       <c r="B164">
         <f>Data!A164</f>
         <v>163</v>
@@ -14716,7 +14725,7 @@
         <v>673.84912257863778</v>
       </c>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:8">
       <c r="B165">
         <f>Data!A165</f>
         <v>164</v>
@@ -14746,7 +14755,7 @@
         <v>589.36250304884516</v>
       </c>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:8">
       <c r="B166">
         <f>Data!A166</f>
         <v>165</v>
@@ -14776,7 +14785,7 @@
         <v>466.21733129518043</v>
       </c>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:8">
       <c r="B167">
         <f>Data!A167</f>
         <v>166</v>
@@ -14806,7 +14815,7 @@
         <v>715.5702690861325</v>
       </c>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:8">
       <c r="B168">
         <f>Data!A168</f>
         <v>167</v>
@@ -14836,7 +14845,7 @@
         <v>567.3784980064014</v>
       </c>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:8">
       <c r="B169">
         <f>Data!A169</f>
         <v>168</v>
@@ -14866,7 +14875,7 @@
         <v>639.19702752750663</v>
       </c>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:8">
       <c r="B170">
         <f>Data!A170</f>
         <v>169</v>
@@ -14896,7 +14905,7 @@
         <v>652.6299793910789</v>
       </c>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:8">
       <c r="B171">
         <f>Data!A171</f>
         <v>170</v>
@@ -14926,7 +14935,7 @@
         <v>593.15435596478596</v>
       </c>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:8">
       <c r="B172">
         <f>Data!A172</f>
         <v>171</v>
@@ -14956,7 +14965,7 @@
         <v>298.83374976732466</v>
       </c>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:8">
       <c r="B173">
         <f>Data!A173</f>
         <v>172</v>
@@ -14986,7 +14995,7 @@
         <v>720.18845450340291</v>
       </c>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:8">
       <c r="B174">
         <f>Data!A174</f>
         <v>173</v>
@@ -15016,7 +15025,7 @@
         <v>716.17708005771863</v>
       </c>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:8">
       <c r="B175">
         <f>Data!A175</f>
         <v>174</v>
@@ -15046,7 +15055,7 @@
         <v>437.57508887047032</v>
       </c>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:8">
       <c r="B176">
         <f>Data!A176</f>
         <v>175</v>
@@ -15076,7 +15085,7 @@
         <v>1064.6667506783519</v>
       </c>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:8">
       <c r="B177">
         <f>Data!A177</f>
         <v>176</v>
@@ -15106,7 +15115,7 @@
         <v>580.81894769368535</v>
       </c>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:8">
       <c r="B178">
         <f>Data!A178</f>
         <v>177</v>
@@ -15136,7 +15145,7 @@
         <v>645.66985371782687</v>
       </c>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:8">
       <c r="B179">
         <f>Data!A179</f>
         <v>178</v>
@@ -15166,7 +15175,7 @@
         <v>475.39235374582961</v>
       </c>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:8">
       <c r="B180">
         <f>Data!A180</f>
         <v>179</v>
@@ -15196,7 +15205,7 @@
         <v>430.04842750555429</v>
       </c>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:8">
       <c r="B181">
         <f>Data!A181</f>
         <v>180</v>
@@ -15226,7 +15235,7 @@
         <v>435.81326276284892</v>
       </c>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:8">
       <c r="B182">
         <f>Data!A182</f>
         <v>181</v>
@@ -15256,7 +15265,7 @@
         <v>452.15715188416516</v>
       </c>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:8">
       <c r="B183">
         <f>Data!A183</f>
         <v>182</v>
@@ -15286,7 +15295,7 @@
         <v>465.54587314248636</v>
       </c>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:8">
       <c r="B184">
         <f>Data!A184</f>
         <v>183</v>
@@ -15316,7 +15325,7 @@
         <v>492.00585362371459</v>
       </c>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:8">
       <c r="B185">
         <f>Data!A185</f>
         <v>184</v>
@@ -15346,7 +15355,7 @@
         <v>669.17262346871303</v>
       </c>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:8">
       <c r="B186">
         <f>Data!A186</f>
         <v>185</v>
@@ -15376,7 +15385,7 @@
         <v>501.03761335851817</v>
       </c>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:8">
       <c r="B187">
         <f>Data!A187</f>
         <v>186</v>
@@ -15406,7 +15415,7 @@
         <v>624.19507367488893</v>
       </c>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:8">
       <c r="B188">
         <f>Data!A188</f>
         <v>187</v>
@@ -15436,7 +15445,7 @@
         <v>662.6203739698924</v>
       </c>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:8">
       <c r="B189">
         <f>Data!A189</f>
         <v>188</v>
@@ -15466,7 +15475,7 @@
         <v>491.17817541091949</v>
       </c>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:8">
       <c r="B190">
         <f>Data!A190</f>
         <v>189</v>
@@ -15496,7 +15505,7 @@
         <v>527.60208490869331</v>
       </c>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:8">
       <c r="B191">
         <f>Data!A191</f>
         <v>190</v>
@@ -15526,7 +15535,7 @@
         <v>746.65186666879765</v>
       </c>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:8">
       <c r="B192">
         <f>Data!A192</f>
         <v>191</v>
@@ -15556,7 +15565,7 @@
         <v>396.02940547388647</v>
       </c>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:8">
       <c r="B193">
         <f>Data!A193</f>
         <v>192</v>
@@ -15586,7 +15595,7 @@
         <v>544.21150300227941</v>
       </c>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:8">
       <c r="B194">
         <f>Data!A194</f>
         <v>193</v>
@@ -15616,7 +15625,7 @@
         <v>395.84769798496995</v>
       </c>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:8">
       <c r="B195">
         <f>Data!A195</f>
         <v>194</v>
@@ -15646,7 +15655,7 @@
         <v>520.28416274186168</v>
       </c>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:8">
       <c r="B196">
         <f>Data!A196</f>
         <v>195</v>
@@ -15676,7 +15685,7 @@
         <v>612.15397572832933</v>
       </c>
     </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:8">
       <c r="B197">
         <f>Data!A197</f>
         <v>196</v>
@@ -15706,7 +15715,7 @@
         <v>397.40759932341501</v>
       </c>
     </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:8">
       <c r="B198">
         <f>Data!A198</f>
         <v>197</v>
@@ -15736,7 +15745,7 @@
         <v>403.02765413802558</v>
       </c>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:8">
       <c r="B199">
         <f>Data!A199</f>
         <v>198</v>
@@ -15766,7 +15775,7 @@
         <v>363.89289688038707</v>
       </c>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:8">
       <c r="B200">
         <f>Data!A200</f>
         <v>199</v>
@@ -15796,7 +15805,7 @@
         <v>415.25418721549335</v>
       </c>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:8">
       <c r="B201">
         <f>Data!A201</f>
         <v>200</v>
@@ -15826,7 +15835,7 @@
         <v>631.16908194239045</v>
       </c>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:8">
       <c r="B202">
         <f>Data!A202</f>
         <v>201</v>
@@ -15856,13 +15865,13 @@
         <v>631.16908194239045</v>
       </c>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:8">
       <c r="B203">
         <f>Data!A203</f>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:8">
       <c r="B204">
         <f>Data!A204</f>
         <v>0</v>
